--- a/VerveStacks_FIN/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_FIN/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F379EB-BC93-48D8-9CEC-B5BE8934671B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA883815-F542-4B1C-B4FF-9121B99D15B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>FaD,SaD,FaP,SaP,WaP,RaP,WaD,RaD</t>
-  </si>
-  <si>
-    <t>RaP,FaP,SaP,RaN,WaP,FaN,SaN,WaN</t>
+    <t>FaD,FaP,SaP,RaP,SaD,RaD,WaP,WaD</t>
+  </si>
+  <si>
+    <t>RaP,FaP,SaP,FaN,RaN,SaN,WaN,WaP</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -920,7 +920,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>RaP,FaP,SaP,RaN,WaP,FaN,SaN,WaN</v>
+        <v>RaP,FaP,SaP,FaN,RaN,SaN,WaN,WaP</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>FaD,SaD,FaP,SaP,WaP,RaP,WaD,RaD</v>
+        <v>FaD,FaP,SaP,RaP,SaD,RaD,WaP,WaD</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CAF00C-D71C-40A7-8478-BC80B16B6E7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824586AB-27D2-4CF9-97F2-D6B3F606B20C}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183E8D11-B90A-4E69-AB45-FFCB0AED3F94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED91E3C2-8FDC-4BB8-BC2D-922F317C5791}">
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1726,7 +1726,7 @@
         <v>21</v>
       </c>
       <c r="N4">
-        <v>0.29696276080640899</v>
+        <v>0.29696276080640904</v>
       </c>
       <c r="O4" t="s">
         <v>108</v>
@@ -1758,10 +1758,10 @@
         <v>97</v>
       </c>
       <c r="M5" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="N5">
-        <v>0.27551721102209698</v>
+        <v>0.28270094198432955</v>
       </c>
       <c r="O5" t="s">
         <v>108</v>
@@ -1793,10 +1793,10 @@
         <v>97</v>
       </c>
       <c r="M6" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="N6">
-        <v>0.28270094198432955</v>
+        <v>0.34481908618716439</v>
       </c>
       <c r="O6" t="s">
         <v>108</v>
@@ -1828,10 +1828,10 @@
         <v>97</v>
       </c>
       <c r="M7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N7">
-        <v>0.34481908618716439</v>
+        <v>0.27551721102209703</v>
       </c>
       <c r="O7" t="s">
         <v>108</v>
@@ -2051,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1BE5E2-480D-49EC-874D-63D30AA303FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAA065F-B289-49C3-8517-92A05D3DB92B}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_FIN/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_FIN/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA883815-F542-4B1C-B4FF-9121B99D15B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4C3E40-BCBD-42C6-9633-1B29F8A2D26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>FaD,FaP,SaP,RaP,SaD,RaD,WaP,WaD</t>
-  </si>
-  <si>
-    <t>RaP,FaP,SaP,FaN,RaN,SaN,WaN,WaP</t>
+    <t>RaD,WaD,FaD,RaP,SaD,WaP,FaP,SaP</t>
+  </si>
+  <si>
+    <t>RaP,FaN,SaN,WaN,FaP,SaP,RaN,WaP</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -920,7 +920,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>RaP,FaP,SaP,FaN,RaN,SaN,WaN,WaP</v>
+        <v>RaP,FaN,SaN,WaN,FaP,SaP,RaN,WaP</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>FaD,FaP,SaP,RaP,SaD,RaD,WaP,WaD</v>
+        <v>RaD,WaD,FaD,RaP,SaD,WaP,FaP,SaP</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824586AB-27D2-4CF9-97F2-D6B3F606B20C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6998E148-40F5-4CA2-B131-2820E3D875FD}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED91E3C2-8FDC-4BB8-BC2D-922F317C5791}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BACF50-59DF-44B0-AEA5-292FD81D1602}">
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1723,10 +1723,10 @@
         <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N4">
-        <v>0.29696276080640904</v>
+        <v>0.34481908618716439</v>
       </c>
       <c r="O4" t="s">
         <v>108</v>
@@ -1758,10 +1758,10 @@
         <v>97</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="N5">
-        <v>0.28270094198432955</v>
+        <v>0.27551721102209698</v>
       </c>
       <c r="O5" t="s">
         <v>108</v>
@@ -1793,10 +1793,10 @@
         <v>97</v>
       </c>
       <c r="M6" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="N6">
-        <v>0.34481908618716439</v>
+        <v>0.2827009419843296</v>
       </c>
       <c r="O6" t="s">
         <v>108</v>
@@ -1828,10 +1828,10 @@
         <v>97</v>
       </c>
       <c r="M7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N7">
-        <v>0.27551721102209703</v>
+        <v>0.29696276080640904</v>
       </c>
       <c r="O7" t="s">
         <v>108</v>
@@ -2051,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAA065F-B289-49C3-8517-92A05D3DB92B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E94457-9151-453F-ADF5-5FAD162EDFB3}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
